--- a/output/google_maps_data_Klinik_Bantul.xlsx
+++ b/output/google_maps_data_Klinik_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0896-6774-4774</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>-7.880218</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.880218</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.338061</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+IDI+Bantul/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff555565b1db:0x4a09d229e2244c14!8m2!3d-7.8802185!4d110.3380607!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11d_7t8wtn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+IDI+Bantul/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff555565b1db:0x4a09d229e2244c14!8m2!3d-7.8802185!4d110.3380607!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11d_7t8wtn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -548,25 +542,24 @@
           <t>0851-0035-5008</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>-7.836589</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.836589</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.351698</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Basuki+Amalia/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57cae0760651:0xd036d91c4adf4823!8m2!3d-7.8365889!4d110.3516975!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cn8_lt1y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Basuki+Amalia/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57cae0760651:0xd036d91c4adf4823!8m2!3d-7.8365889!4d110.3516975!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cn8_lt1y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -589,25 +582,24 @@
           <t>(0274) 4530254</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.841629</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.841629</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.363016</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+0729/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a564c2559af4f:0xa7f42092519ae3db!8m2!3d-7.8416289!4d110.3630162!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bws8wffb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+0729/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a564c2559af4f:0xa7f42092519ae3db!8m2!3d-7.8416289!4d110.3630162!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bws8wffb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -627,22 +619,21 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.83236</v>
+      </c>
       <c r="G5" t="n">
-        <v>-7.83236</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.353635</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/klinik+bantul+jogjakarta/@-7.8802185,110.2659629,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57bf9daca7ad:0x8834ef7cd5414ad7!8m2!3d-7.8323596!4d110.3536354!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j2fj913_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,25 +652,24 @@
           <t>0822-4358-7616</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>-7.793839</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.793839</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.346782</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Karunia+Husada/@-7.7938395,110.2746837,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a581c4f836631:0xd96d31d02a8ed097!8m2!3d-7.7938395!4d110.3467815!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6nr8b77?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Karunia+Husada/@-7.7938395,110.2746837,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a581c4f836631:0xd96d31d02a8ed097!8m2!3d-7.7938395!4d110.3467815!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6nr8b77?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -706,25 +696,24 @@
           <t>(0274) 372564</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.828814</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.828814</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.35386</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Meira+(Meira+Medical+Center)/@-7.7938395,110.2746837,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57f5bd85d4df:0xb36d5316be474ec2!8m2!3d-7.8288143!4d110.3538603!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11rwlh8bvd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Meira+(Meira+Medical+Center)/@-7.7938395,110.2746837,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57f5bd85d4df:0xb36d5316be474ec2!8m2!3d-7.8288143!4d110.3538603!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11rwlh8bvd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -747,25 +736,24 @@
           <t>(0274) 4396586</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.839253</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.839253</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.391463</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra+Sehat/@-7.8392534,110.3193655,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56e359bae5c7:0xb6751c0e7c370625!8m2!3d-7.8392534!4d110.3914633!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzycly_g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra+Sehat/@-7.8392534,110.3193655,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56e359bae5c7:0xb6751c0e7c370625!8m2!3d-7.8392534!4d110.3914633!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzycly_g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -788,25 +776,24 @@
           <t>(0274) 6461205</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.835366</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.835366</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.317352</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+UMUM+PRATAMA+BINA+SEHAT/@-7.8353657,110.2452546,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af95784183837:0xf8e64456712062e5!8m2!3d-7.8353657!4d110.3173524!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11s0py7rgj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+UMUM+PRATAMA+BINA+SEHAT/@-7.8353657,110.2452546,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af95784183837:0xf8e64456712062e5!8m2!3d-7.8353657!4d110.3173524!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11s0py7rgj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -829,25 +816,24 @@
           <t>(0274) 377049 ext. 119</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.6</v>
+        <v>-7.829516</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.829516</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.344477</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Madukismo/@-7.8353657,110.2452546,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57440de32615:0xe7f2f088d5510332!8m2!3d-7.8295158!4d110.3444769!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cml_wxbk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Madukismo/@-7.8353657,110.2452546,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57440de32615:0xe7f2f088d5510332!8m2!3d-7.8295158!4d110.3444769!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cml_wxbk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -870,25 +856,24 @@
           <t>0877-3938-3700</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>-7.840237</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.840237</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.381988</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Poliklinik+Daarus-Syifa'/@-7.8402369,110.3098905,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56fee75564c9:0x4441e01d31eebbdc!8m2!3d-7.8402369!4d110.3819883!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c7ss8zwg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Poliklinik+Daarus-Syifa'/@-7.8402369,110.3098905,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56fee75564c9:0x4441e01d31eebbdc!8m2!3d-7.8402369!4d110.3819883!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c7ss8zwg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -911,25 +896,24 @@
           <t>0878-8909-1504</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.82432</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.82432</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.328026</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+ANUGERAH/@-7.8243202,110.2559285,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af87662be7b41:0x30cd30523fa31fcf!8m2!3d-7.8243202!4d110.3280263!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b73p9gnh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+ANUGERAH/@-7.8243202,110.2559285,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af87662be7b41:0x30cd30523fa31fcf!8m2!3d-7.8243202!4d110.3280263!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b73p9gnh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -952,25 +936,24 @@
           <t>0821-3823-8664</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>-7.877962</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.877962</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.334834</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Estetika+EPZA+Medical+Skin+Care/@-7.8243202,110.2559285,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff509f1d6703:0x824566e718b86638!8m2!3d-7.8779624!4d110.334834!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c5zjx0m7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Estetika+EPZA+Medical+Skin+Care/@-7.8243202,110.2559285,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff509f1d6703:0x824566e718b86638!8m2!3d-7.8779624!4d110.334834!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c5zjx0m7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -993,25 +976,24 @@
           <t>(0274) 368784</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>-7.887879</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.887879</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.317727</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+As-Syifa/@-7.8878792,110.2456295,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff4e39b8e713:0x3018cb1a15f27639!8m2!3d-7.8878792!4d110.3177273!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g6nzlg9l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+As-Syifa/@-7.8878792,110.2456295,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff4e39b8e713:0x3018cb1a15f27639!8m2!3d-7.8878792!4d110.3177273!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g6nzlg9l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1038,25 +1020,24 @@
           <t>0813-1221-6946</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.883974</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.883974</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.352228</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Cita+Sehat/@-7.8878792,110.2456295,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55ff649cafc7:0x808de91fc14f7d8!8m2!3d-7.8839737!4d110.3522279!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j21_w8_d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Cita+Sehat/@-7.8878792,110.2456295,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55ff649cafc7:0x808de91fc14f7d8!8m2!3d-7.8839737!4d110.3522279!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j21_w8_d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1079,25 +1060,24 @@
           <t>0851-0093-2710</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>-7.87178</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.87178</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.405923</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+KEDATON/@-7.8717803,110.3338248,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56a169c1753b:0x700f690e36b36943!8m2!3d-7.8717803!4d110.4059226!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g9qf1g_9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+KEDATON/@-7.8717803,110.3338248,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56a169c1753b:0x700f690e36b36943!8m2!3d-7.8717803!4d110.4059226!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g9qf1g_9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1120,25 +1100,24 @@
           <t>0851-0135-9333</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>-7.850001</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.850001</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.357492</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BP+Laras+Hati/@-7.8500011,110.285394,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57b2be9a6693:0x5af1aeb4f81d4c02!8m2!3d-7.8500011!4d110.3574918!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzsg94m3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BP+Laras+Hati/@-7.8500011,110.285394,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57b2be9a6693:0x5af1aeb4f81d4c02!8m2!3d-7.8500011!4d110.3574918!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzsg94m3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1165,25 +1144,24 @@
           <t>0851-0037-1992</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>-7.826486</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.826486</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.354199</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+GIGI+KANINA+DONGKELAN/@-7.8500011,110.285394,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57c7fd1eacf9:0x7d4c2f5bad1a67f8!8m2!3d-7.8264859!4d110.3541993!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11c2b90d03?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+GIGI+KANINA+DONGKELAN/@-7.8500011,110.285394,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57c7fd1eacf9:0x7d4c2f5bad1a67f8!8m2!3d-7.8264859!4d110.3541993!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11c2b90d03?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -1206,25 +1184,24 @@
           <t>(0274) 2810384</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.879628</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.879628</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.351947</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Ibnu+Abbas/@-7.8500011,110.285394,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55e02e73b90b:0x673eaf5bb0c0518f!8m2!3d-7.8796282!4d110.3519473!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11b8v47986?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Ibnu+Abbas/@-7.8500011,110.285394,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55e02e73b90b:0x673eaf5bb0c0518f!8m2!3d-7.8796282!4d110.3519473!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11b8v47986?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1247,25 +1224,24 @@
           <t>0858-7605-8500</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.881307</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.881307</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.322203</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Rumah+Sehat+Alisa/@-7.8813075,110.2501048,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7affdee042785b:0xdf6c83752fa3cb12!8m2!3d-7.8813075!4d110.3222026!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j9cxm84l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Rumah+Sehat+Alisa/@-7.8813075,110.2501048,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7affdee042785b:0xdf6c83752fa3cb12!8m2!3d-7.8813075!4d110.3222026!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j9cxm84l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1288,25 +1264,24 @@
           <t>(0274) 6460986</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-7.878839</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.878839</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.314142</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Cahaya+Husada/@-7.8813075,110.2501048,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af8b3732a4d59:0x9e9b2cacae45dd16!8m2!3d-7.8788388!4d110.3141417!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bzs5ktxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Cahaya+Husada/@-7.8813075,110.2501048,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af8b3732a4d59:0x9e9b2cacae45dd16!8m2!3d-7.8788388!4d110.3141417!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bzs5ktxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1329,25 +1304,24 @@
           <t>(0274) 6469047</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>-7.901644</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.901644</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.340028</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Istiazah/@-7.8813075,110.2501048,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a558d1e6c3b55:0x4a8a76f5b87a95e6!8m2!3d-7.9016438!4d110.3400275!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzs7tznf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Istiazah/@-7.8813075,110.2501048,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a558d1e6c3b55:0x4a8a76f5b87a95e6!8m2!3d-7.9016438!4d110.3400275!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzs7tznf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1370,25 +1344,24 @@
           <t>0899-8889-666</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.785035</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.785035</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.347843</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+24+Jam+Hana/@-7.7850353,110.2757453,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5810c42b4bb9:0x2f23a6a0b70a50ac!8m2!3d-7.7850353!4d110.3478431!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11bw3dshmw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+24+Jam+Hana/@-7.7850353,110.2757453,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5810c42b4bb9:0x2f23a6a0b70a50ac!8m2!3d-7.7850353!4d110.3478431!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11bw3dshmw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1411,25 +1384,24 @@
           <t>(0274) 4353476</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.830689</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.830689</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.44245</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+Husada/@-7.8306888,110.3703517,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a50d91fb57a23:0xbd1e78bc51eec946!8m2!3d-7.8306888!4d110.4424495!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1twxbtvb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+Husada/@-7.8306888,110.3703517,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a50d91fb57a23:0xbd1e78bc51eec946!8m2!3d-7.8306888!4d110.4424495!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1twxbtvb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1448,25 +1420,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.889492</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.889492</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.327211</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+WIRA+PRATAMA+POLRES+BANTUL/@-7.8894919,110.2551134,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff5f9d5c16f7:0x8c72c7899b3be4bf!8m2!3d-7.8894919!4d110.3272112!15sCg1LbGluaWsgQmFudHVskgEIaG9zcGl0YWzgAQA!16s%2Fg%2F11h_cp4m_w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+WIRA+PRATAMA+POLRES+BANTUL/@-7.8894919,110.2551134,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff5f9d5c16f7:0x8c72c7899b3be4bf!8m2!3d-7.8894919!4d110.3272112!15sCg1LbGluaWsgQmFudHVskgEIaG9zcGl0YWzgAQA!16s%2Fg%2F11h_cp4m_w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1493,25 +1464,24 @@
           <t>0851-5602-6377</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>-7.791937</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.791937</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.399623</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Ibu+dan+Anak+Kurnia+KIKU/@-7.7919374,110.3275256,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a59a705722f57:0x668ee7a14525588e!8m2!3d-7.7919374!4d110.3996234!15sCg1LbGluaWsgQmFudHVskgESc3BlY2lhbGl6ZWRfY2xpbmlj4AEA!16s%2Fg%2F11ppy0zlny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Ibu+dan+Anak+Kurnia+KIKU/@-7.7919374,110.3275256,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a59a705722f57:0x668ee7a14525588e!8m2!3d-7.7919374!4d110.3996234!15sCg1LbGluaWsgQmFudHVskgESc3BlY2lhbGl6ZWRfY2xpbmlj4AEA!16s%2Fg%2F11ppy0zlny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -1534,25 +1504,24 @@
           <t>0813-1922-6227</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.887257</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.887257</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.38728</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+NUR+HIDAYAH/@-7.8872574,110.3151822,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a552c09c8b0b7:0xf319bbf205d883b2!8m2!3d-7.8872574!4d110.38728!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11gxxrp9z9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+NUR+HIDAYAH/@-7.8872574,110.3151822,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a552c09c8b0b7:0xf319bbf205d883b2!8m2!3d-7.8872574!4d110.38728!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11gxxrp9z9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1575,25 +1544,24 @@
           <t>0812-2965-3353</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-7.81142</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.81142</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.415547</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+ENY+(dr.+Eny+Iskawati)/@-7.8114202,110.3434496,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5748f4487daf:0xad7585b919e0304d!8m2!3d-7.8114202!4d110.4155474!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11c5stvsf8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+ENY+(dr.+Eny+Iskawati)/@-7.8114202,110.3434496,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5748f4487daf:0xad7585b919e0304d!8m2!3d-7.8114202!4d110.4155474!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11c5stvsf8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1616,25 +1584,24 @@
           <t>0851-0089-8240</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.902493</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.902493</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.321348</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Wiwit/@-7.9024928,110.2492504,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff67986bceff:0x23990cebe76be21!8m2!3d-7.9024928!4d110.3213482!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw6dnybt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Wiwit/@-7.9024928,110.2492504,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff67986bceff:0x23990cebe76be21!8m2!3d-7.9024928!4d110.3213482!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw6dnybt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1661,25 +1628,24 @@
           <t>0822-8008-0047</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>-7.828634</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.828634</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.353864</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RUMAT+Sewon+-+Perawatan+Luka+Diabetes/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a59e8a56c4945:0xc4989a0cdb0e078c!8m2!3d-7.828634!4d110.353864!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cr_n7fgy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RUMAT+Sewon+-+Perawatan+Luka+Diabetes/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a59e8a56c4945:0xc4989a0cdb0e078c!8m2!3d-7.828634!4d110.353864!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cr_n7fgy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1702,25 +1668,24 @@
           <t>0812-9253-5759</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.864065</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.864065</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.339444</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Inusa+Bantul/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57e5e289592f:0xea39f73d1a36e4d1!8m2!3d-7.8640647!4d110.3394442!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARZoZWFsdGhfYW5kX2JlYXV0eV9zaG9w4AEA!16s%2Fg%2F11rcq1cc2l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Inusa+Bantul/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57e5e289592f:0xea39f73d1a36e4d1!8m2!3d-7.8640647!4d110.3394442!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARZoZWFsdGhfYW5kX2JlYXV0eV9zaG9w4AEA!16s%2Fg%2F11rcq1cc2l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1747,25 +1712,24 @@
           <t>0878-7722-7889</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.854656</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.854656</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.341892</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Bantul+%7C+Klinik+Gigi+Bantul+Jogja+%7C+Behel+Jogja/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a575c7c171f2f:0x4d205bb7f785e39d!8m2!3d-7.8546562!4d110.3418919!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11sv1840kh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Bantul+%7C+Klinik+Gigi+Bantul+Jogja+%7C+Behel+Jogja/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a575c7c171f2f:0x4d205bb7f785e39d!8m2!3d-7.8546562!4d110.3418919!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11sv1840kh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1788,25 +1752,24 @@
           <t>0896-9011-1008</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-7.881175</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.881175</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.329457</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kusuma+Dental+Care:+Dental+Center+Bantul/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff5318101a21:0x4e912cbfe53ab5ff!8m2!3d-7.8811751!4d110.3294571!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11wvmmnv5b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kusuma+Dental+Care:+Dental+Center+Bantul/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff5318101a21:0x4e912cbfe53ab5ff!8m2!3d-7.8811751!4d110.3294571!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11wvmmnv5b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -1829,25 +1792,24 @@
           <t>0821-4100-2974</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.882229</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.882229</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.335041</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+Sapto+Argo/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55fe5a35718b:0x84fa5f57ce3a428!8m2!3d-7.8822294!4d110.3350407!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f03pbv_l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+Sapto+Argo/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55fe5a35718b:0x84fa5f57ce3a428!8m2!3d-7.8822294!4d110.3350407!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f03pbv_l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1870,25 +1832,24 @@
           <t>0811-1896-690</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F35" t="n">
-        <v>3.4</v>
+        <v>-7.82879</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.82879</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.35387</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Halomed+Dental+Sewon+Yogjakarta/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570fc463b921:0x36b5b39e8bbbc5e3!8m2!3d-7.8287901!4d110.3538697!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11p0bmykv5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Halomed+Dental+Sewon+Yogjakarta/@-7.828634,110.2817662,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570fc463b921:0x36b5b39e8bbbc5e3!8m2!3d-7.8287901!4d110.3538697!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11p0bmykv5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1911,25 +1872,24 @@
           <t>(0274) 367877</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.912817</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.912817</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.368902</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Pulokadang/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55af1745b127:0x25ad188573cffd90!8m2!3d-7.9128174!4d110.3689015!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11g6blx9j_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Pulokadang/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55af1745b127:0x25ad188573cffd90!8m2!3d-7.9128174!4d110.3689015!15sCg1LbGluaWsgQmFudHVskgEGZG9jdG9y4AEA!16s%2Fg%2F11g6blx9j_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1952,25 +1912,24 @@
           <t>0898-4077-423</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.893568</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.893568</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.340062</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Juru+Supit+Djono+Bantul/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55f1d8c69dd7:0x21df67a74239c489!8m2!3d-7.8935677!4d110.3400615!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzph84pt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Juru+Supit+Djono+Bantul/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55f1d8c69dd7:0x21df67a74239c489!8m2!3d-7.8935677!4d110.3400615!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzph84pt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1993,25 +1952,24 @@
           <t>0821-3106-1552</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>-7.912646</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.912646</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.382848</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+PKU+Muhammadiyah+Imogiri/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55a56acdf83f:0xa93553b3cb4d3f7f!8m2!3d-7.9126464!4d110.3828479!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j_9b6p_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+PKU+Muhammadiyah+Imogiri/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55a56acdf83f:0xa93553b3cb4d3f7f!8m2!3d-7.9126464!4d110.3828479!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11j_9b6p_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -2034,25 +1992,24 @@
           <t>(0274) 368153</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.923503</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.923503</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.350649</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+RAWAT+INAP+%22+PATALAN+%22/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55744f2905ad:0x25118d892c80a6fa!8m2!3d-7.923503!4d110.350649!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6x9s9m9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+RAWAT+INAP+%22+PATALAN+%22/@-7.9128174,110.2968037,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55744f2905ad:0x25118d892c80a6fa!8m2!3d-7.923503!4d110.350649!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6x9s9m9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2075,25 +2032,24 @@
           <t>(0274) 6461551</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.3</v>
+        <v>-7.83904</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.83904</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.334894</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Umum+Rawat+Inap+Kasih+Bunda/@-7.8390405,110.2627958,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a562b33de6c51:0x3fcba8471ce6e7d3!8m2!3d-7.8390405!4d110.3348936!15sCg1LbGluaWsgQmFudHVskgEIaG9zcGl0YWzgAQA!16s%2Fg%2F11gf4p7rbs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Umum+Rawat+Inap+Kasih+Bunda/@-7.8390405,110.2627958,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a562b33de6c51:0x3fcba8471ce6e7d3!8m2!3d-7.8390405!4d110.3348936!15sCg1LbGluaWsgQmFudHVskgEIaG9zcGl0YWzgAQA!16s%2Fg%2F11gf4p7rbs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2116,25 +2072,24 @@
           <t>0811-266-477</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>-7.923425</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.923425</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.308285</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra+Husada/@-7.9234254,110.2361871,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7affadb06f8141:0x34e75d4a4ba8d34a!8m2!3d-7.9234254!4d110.3082849!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11h_vc_v5n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra+Husada/@-7.9234254,110.2361871,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7affadb06f8141:0x34e75d4a4ba8d34a!8m2!3d-7.9234254!4d110.3082849!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11h_vc_v5n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2157,25 +2112,24 @@
           <t>0811-3800-7889</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.876002</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.876002</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.335467</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Savya+Aesthetic+Clinic/@-7.9234254,110.2361871,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570068d27e87:0x4668a975ec2ecfe4!8m2!3d-7.8760025!4d110.3354673!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11lym_kpl4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2194,25 +2148,24 @@
           <t>0889-8399-5852</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-7.869803</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.869803</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.26402</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+IDI+Pajangan/@-7.8698033,110.1919225,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af9396cf14647:0x5251a34d8e5bb44d!8m2!3d-7.8698033!4d110.2640203!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11f2cl6p7m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+IDI+Pajangan/@-7.8698033,110.1919225,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af9396cf14647:0x5251a34d8e5bb44d!8m2!3d-7.8698033!4d110.2640203!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11f2cl6p7m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2239,25 +2192,24 @@
           <t>0817-890-893</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.863828</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.863828</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.352265</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Max%2B+Dental+Care+Bantul/@-7.8638281,110.2801667,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570068ed5b3b:0x9f7880165d630686!8m2!3d-7.8638281!4d110.3522645!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11wncmxhzj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Max%2B+Dental+Care+Bantul/@-7.8638281,110.2801667,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570068ed5b3b:0x9f7880165d630686!8m2!3d-7.8638281!4d110.3522645!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11wncmxhzj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>59 menit lalu</t>
         </is>
@@ -2280,25 +2232,24 @@
           <t>(0274) 443261</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-7.819741</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.819741</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.415445</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+HUSNA+MEDIKA/@-7.8197408,110.3433474,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5730b6da82ad:0x60de082e3d266f48!8m2!3d-7.8197408!4d110.4154452!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cltqp2cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+HUSNA+MEDIKA/@-7.8197408,110.3433474,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5730b6da82ad:0x60de082e3d266f48!8m2!3d-7.8197408!4d110.4154452!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cltqp2cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2325,25 +2276,24 @@
           <t>0878-6060-4800</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.817912</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.817912</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.355927</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Pugeran+%7C+Klinik+Dokter+Gigi+Terdekat/@-7.8179122,110.2838295,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570b1caabf3d:0xb6930ddbada57ab5!8m2!3d-7.8179122!4d110.3559273!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11hf00hkx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Pugeran+%7C+Klinik+Dokter+Gigi+Terdekat/@-7.8179122,110.2838295,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a570b1caabf3d:0xb6930ddbada57ab5!8m2!3d-7.8179122!4d110.3559273!15sCg1LbGluaWsgQmFudHVskgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F11hf00hkx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2370,25 +2320,24 @@
           <t>0811-1340-7297</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.884021</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.884021</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.331759</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RUMAT+Bantul+-+Perawatan+Luka+Diabetes/@-7.884021,110.2596612,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5587bace44c3:0xbdbd8183117a43fb!8m2!3d-7.884021!4d110.331759!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11sf8_n_pk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RUMAT+Bantul+-+Perawatan+Luka+Diabetes/@-7.884021,110.2596612,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5587bace44c3:0xbdbd8183117a43fb!8m2!3d-7.884021!4d110.331759!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11sf8_n_pk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2415,25 +2364,24 @@
           <t>0811-2984-740</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.879001</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.879001</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.334322</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Larissa+Aesthetic+Center+Bantul/@-7.884021,110.2596612,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56008c396a0f:0x1a345925db5a3e33!8m2!3d-7.8790006!4d110.3343219!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c2nsp0bb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Larissa+Aesthetic+Center+Bantul/@-7.884021,110.2596612,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56008c396a0f:0x1a345925db5a3e33!8m2!3d-7.8790006!4d110.3343219!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c2nsp0bb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>3 menit lalu</t>
         </is>
@@ -2456,25 +2404,24 @@
           <t>0813-2832-0312</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.3</v>
+        <v>-7.852659</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.852659</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.245923</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Bunga+Arsari/@-7.852659,110.1738256,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af97ac69ed743:0x7f5eed806a59ba07!8m2!3d-7.852659!4d110.2459234!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjp6h2wh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Bunga+Arsari/@-7.852659,110.1738256,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af97ac69ed743:0x7f5eed806a59ba07!8m2!3d-7.852659!4d110.2459234!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjp6h2wh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2493,25 +2440,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.6</v>
+        <v>-7.952021</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.952021</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.323032</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama/@-7.9520214,110.2509342,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7afff090c91b6d:0xf1c675f833380a83!8m2!3d-7.9520214!4d110.323032!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bzrh4k9_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama/@-7.9520214,110.2509342,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7afff090c91b6d:0xf1c675f833380a83!8m2!3d-7.9520214!4d110.323032!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bzrh4k9_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2534,25 +2480,24 @@
           <t>(0274) 4537679</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.5</v>
+        <v>-7.99739</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.99739</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.315061</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Rawat+Inap+Dharma+Husada/@-7.9520214,110.2509342,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7b00644cd91bf3:0xd71aac178c7f2fd0!8m2!3d-7.9973902!4d110.3150611!15sCg1LbGluaWsgQmFudHVskgEQcHJpdmF0ZV9ob3NwaXRhbOABAA!16s%2Fg%2F11g6yp30h5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Rawat+Inap+Dharma+Husada/@-7.9520214,110.2509342,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7b00644cd91bf3:0xd71aac178c7f2fd0!8m2!3d-7.9973902!4d110.3150611!15sCg1LbGluaWsgQmFudHVskgEQcHJpdmF0ZV9ob3NwaXRhbOABAA!16s%2Fg%2F11g6yp30h5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2572,22 +2517,21 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-7.889758</v>
+      </c>
       <c r="G52" t="n">
-        <v>-7.889758</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.327356</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Bhayangkara+Polres+Bantul/@-7.8897579,110.2552579,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff577177a763:0x7d7a51044f1de364!8m2!3d-7.8897579!4d110.3273557!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11c603vjd8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2606,25 +2550,24 @@
           <t>(0274) 377019</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.807983</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.807983</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.408088</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mitra+Medika/@-7.807983,110.3359902,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57438b10dbe3:0x22ada65bb0d112fb!8m2!3d-7.807983!4d110.408088!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1hc4yhv3s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mitra+Medika/@-7.807983,110.3359902,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57438b10dbe3:0x22ada65bb0d112fb!8m2!3d-7.807983!4d110.408088!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1hc4yhv3s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2647,25 +2590,24 @@
           <t>(0274) 6463684</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>-7.848949</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.848949</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.343049</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bellissima+Aesthetica+Herbal/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a563aaa20b2fb:0x4012af4cac4cbed3!8m2!3d-7.8489489!4d110.343049!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11cn9f0snk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bellissima+Aesthetica+Herbal/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a563aaa20b2fb:0x4012af4cac4cbed3!8m2!3d-7.8489489!4d110.343049!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11cn9f0snk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2688,25 +2630,24 @@
           <t>0851-0300-4489</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.9</v>
+        <v>-7.831184</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.831184</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.331093</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gerai+Sehat+Dompet+Dhuafa+Jogja/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57fe55797ce5:0xbe0f294cb63a9ba!8m2!3d-7.8311845!4d110.3310931!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b88qcr1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gerai+Sehat+Dompet+Dhuafa+Jogja/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57fe55797ce5:0xbe0f294cb63a9ba!8m2!3d-7.8311845!4d110.3310931!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b88qcr1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2729,25 +2670,24 @@
           <t>(0274) 9136600</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.836453</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.836453</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.373438</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pasakbumi/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57025f139b13:0x760b542d43ce6519!8m2!3d-7.8364527!4d110.3734376!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzr2w66k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pasakbumi/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57025f139b13:0x760b542d43ce6519!8m2!3d-7.8364527!4d110.3734376!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzr2w66k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2770,25 +2710,24 @@
           <t>(0274) 370912</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.84629</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.84629</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.340062</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidan+Praktik+Mandiri+Umu+Hani/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57cfde398d39:0x7d18ccea543d1f4e!8m2!3d-7.8462898!4d110.3400617!15sCg1LbGluaWsgQmFudHVskgEcb2JzdGV0cmljc19neW5lY29sb2d5X2NsaW5pY-ABAA!16s%2Fg%2F11g_v5w7w6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidan+Praktik+Mandiri+Umu+Hani/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57cfde398d39:0x7d18ccea543d1f4e!8m2!3d-7.8462898!4d110.3400617!15sCg1LbGluaWsgQmFudHVskgEcb2JzdGV0cmljc19neW5lY29sb2d5X2NsaW5pY-ABAA!16s%2Fg%2F11g_v5w7w6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2811,25 +2750,24 @@
           <t>0859-4357-2686</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.8</v>
+        <v>-7.84511</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.84511</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.374426</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Safubot+Bantul+Yogyakarta/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a574d04a035b1:0x3e6f62df279207bb!8m2!3d-7.8451103!4d110.3744261!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vf2057_m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Safubot+Bantul+Yogyakarta/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a574d04a035b1:0x3e6f62df279207bb!8m2!3d-7.8451103!4d110.3744261!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vf2057_m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2853,22 +2791,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-7.882023</v>
+      </c>
       <c r="G59" t="n">
-        <v>-7.882023</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.335327</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Dr.+Ngudi+W.S/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55fe5d7caa37:0xb58955efbce10932!8m2!3d-7.882023!4d110.335327!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F11bc7pyh99?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2888,22 +2825,21 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>-7.86872</v>
+      </c>
       <c r="G60" t="n">
-        <v>-7.86872</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.373475</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/klinik+kuret+bantul+dr.+hasya+sp.og/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5776a788c371:0x5ae1fe3f868d658f!8m2!3d-7.8687197!4d110.3734747!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vstw6_pf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2919,22 +2855,21 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>-7.82681</v>
+      </c>
       <c r="G61" t="n">
-        <v>-7.82681</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.354425</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Harapan+Bunda/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57c7f742f649:0xbc76168d2e6958c6!8m2!3d-7.8268099!4d110.3544252!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11h0vthv_2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2957,25 +2892,24 @@
           <t>0822-2508-6264</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.85409</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.85409</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.340893</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Vaksinasi+Raisha+Sewon+%2F+dr.+Ervita+Kumalasari/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56235b9b6597:0x8369db81938fe91!8m2!3d-7.8540903!4d110.3408927!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObFozQkliazEzRUFF4AEA-gEECDgQHw!16s%2Fg%2F11c594qy6s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Vaksinasi+Raisha+Sewon+%2F+dr.+Ervita+Kumalasari/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56235b9b6597:0x8369db81938fe91!8m2!3d-7.8540903!4d110.3408927!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObFozQkliazEzRUFF4AEA-gEECDgQHw!16s%2Fg%2F11c594qy6s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2994,25 +2928,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.5</v>
+        <v>-7.859762</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.859762</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.337297</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Anak/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5618ae63d2f9:0xefdac9f2fffcad34!8m2!3d-7.8597616!4d110.3372966!15sCg1LbGluaWsgQmFudHVskgESc3BlY2lhbGl6ZWRfY2xpbmlj4AEA!16s%2Fg%2F11ggbshb7w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Anak/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5618ae63d2f9:0xefdac9f2fffcad34!8m2!3d-7.8597616!4d110.3372966!15sCg1LbGluaWsgQmFudHVskgESc3BlY2lhbGl6ZWRfY2xpbmlj4AEA!16s%2Fg%2F11ggbshb7w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3039,25 +2972,24 @@
           <t>0878-4357-9191</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>-7.885649</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.885649</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.330263</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Joy+Dental+Bantul+%7C+Dokter+Gigi+Bantul/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff45490f548f:0x45aea08e37346be5!8m2!3d-7.8856493!4d110.3302629!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQdkZW50aXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vTVV0bFptSlJFQUXgAQD6AQQIABA2!16s%2Fg%2F11s2j90fym?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Joy+Dental+Bantul+%7C+Dokter+Gigi+Bantul/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff45490f548f:0x45aea08e37346be5!8m2!3d-7.8856493!4d110.3302629!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQdkZW50aXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vTVV0bFptSlJFQUXgAQD6AQQIABA2!16s%2Fg%2F11s2j90fym?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3084,25 +3016,24 @@
           <t>0877-3930-9047</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.8</v>
+        <v>-7.859738</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.859738</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.340835</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kusuma+Dental+Care+Diro/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56186fc68c31:0x1f830357595aff45!8m2!3d-7.8597384!4d110.3408353!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ZTlV4NlR5MW5SUkFC4AEA-gEECB0QOg!16s%2Fg%2F11f1304240?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kusuma+Dental+Care+Diro/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56186fc68c31:0x1f830357595aff45!8m2!3d-7.8597384!4d110.3408353!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ZTlV4NlR5MW5SUkFC4AEA-gEECB0QOg!16s%2Fg%2F11f1304240?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3129,25 +3060,24 @@
           <t>0877-3930-9047</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.8</v>
+        <v>-7.827987</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.827987</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.354762</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Terapi+Tinggi+Badan+Batara/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57c81d558b83:0xe5c2f94299a9be46!8m2!3d-7.8279872!4d110.3547615!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARRwaHlzaW90aGVyYXB5X2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUWFXVnFkRUYzRUFF4AEA-gEECAAQLA!16s%2Fg%2F11f15f294d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Terapi+Tinggi+Badan+Batara/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57c81d558b83:0xe5c2f94299a9be46!8m2!3d-7.8279872!4d110.3547615!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARRwaHlzaW90aGVyYXB5X2NlbnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUWFXVnFkRUYzRUFF4AEA-gEECAAQLA!16s%2Fg%2F11f15f294d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3174,21 +3104,20 @@
           <t>(0274) 419294</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
+      <c r="E67" t="n">
         <v>4</v>
       </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Kasihan+II/@-7.8489489,110.2709512,13z/data=!4m12!1m2!2m1!1sKlinik+Bantul!3m8!1s0x2e7a57d0085de5bf:0x1f040536e1294c17!8m2!3d-7.8290438!4d110.3450208!9m1!1b1!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9OVkF5Y2t0M0VBReABAPoBBAgAED4!16s%2Fg%2F1pztlb4n7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3207,25 +3136,24 @@
           <t>0852-9308-8107</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.882427</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.882427</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.332561</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya+Sehat+Ayu+Muslimah/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55ffa175ee79:0x6c7e1d1e49a0ebab!8m2!3d-7.8824267!4d110.3325605!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ53YWxrX2luX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTWJYSXRVRmQzRUFF4AEA-gEECAAQFw!16s%2Fg%2F1pzs0pffv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya+Sehat+Ayu+Muslimah/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55ffa175ee79:0x6c7e1d1e49a0ebab!8m2!3d-7.8824267!4d110.3325605!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ53YWxrX2luX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTWJYSXRVRmQzRUFF4AEA-gEECAAQFw!16s%2Fg%2F1pzs0pffv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3248,25 +3176,24 @@
           <t>0856-4058-2013</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.9</v>
+        <v>-7.870276</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.870276</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.351439</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dokter+Gigi+drg.+Krisna+Amretasari+Sp.Ort+(Kana+Dental)/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55e0d837024d:0xb0162fd10c6d1461!8m2!3d-7.8702762!4d110.3514386!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQdkZW50aXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDYjFCMlZrUm5FQUXgAQD6AQQIABA-!16s%2Fg%2F11b6p5v2jm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dokter+Gigi+drg.+Krisna+Amretasari+Sp.Ort+(Kana+Dental)/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55e0d837024d:0xb0162fd10c6d1461!8m2!3d-7.8702762!4d110.3514386!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQdkZW50aXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDYjFCMlZrUm5FQUXgAQD6AQQIABA-!16s%2Fg%2F11b6p5v2jm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3290,22 +3217,21 @@
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>-7.822733</v>
+      </c>
       <c r="G70" t="n">
-        <v>-7.822733</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.354768</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+99/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57b8a84d556f:0xd6bb208fc9ba828b!8m2!3d-7.8227333!4d110.3547676!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bbypwt5k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3324,25 +3250,24 @@
           <t>0818-376-888</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.8</v>
+        <v>-7.892154</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.892154</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.327415</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PKU+Bantul+unit+6+%2F+Hospitarium/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff470238cc71:0x967c4515a788eb07!8m2!3d-7.8921542!4d110.3274154!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARdjb21tdW5pdHlfaGVhbHRoX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUExUZHBWelJuUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11pw07wnld?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PKU+Bantul+unit+6+%2F+Hospitarium/@-7.8489489,110.2709512,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff470238cc71:0x967c4515a788eb07!8m2!3d-7.8921542!4d110.3274154!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARdjb21tdW5pdHlfaGVhbHRoX2NlbnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUExUZHBWelJuUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11pw07wnld?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -3365,25 +3290,24 @@
           <t>0856-2840-022</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.6</v>
+        <v>-7.844241</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.844241</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.411008</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Inusa+Balong/@-7.8442413,110.3389103,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56db26bbcd73:0xb4404eb3a47416a8!8m2!3d-7.8442413!4d110.4110081!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ZTFZCaFVGOTNSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11dxpg7fhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Inusa+Balong/@-7.8442413,110.3389103,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a56db26bbcd73:0xb4404eb3a47416a8!8m2!3d-7.8442413!4d110.4110081!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ZTFZCaFVGOTNSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11dxpg7fhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -3406,25 +3330,24 @@
           <t>0877-3844-4857</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.4</v>
+        <v>-7.891315</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.891315</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.327402</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bellissima+Gose/@-7.8913155,110.2553046,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff8975f8bf57:0x8319a33ea20245ca!8m2!3d-7.8913155!4d110.3274024!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5zYlhWcFZsVm5FQUXgAQD6AQQIURBF!16s%2Fg%2F11h4znl599?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bellissima+Gose/@-7.8913155,110.2553046,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7aff8975f8bf57:0x8319a33ea20245ca!8m2!3d-7.8913155!4d110.3274024!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5zYlhWcFZsVm5FQUXgAQD6AQQIURBF!16s%2Fg%2F11h4znl599?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -3447,25 +3370,24 @@
           <t>(0274) 417878</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.830726</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.830726</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.368859</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Princess+skin+care/@-7.8307261,110.2967607,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57ae6875439d:0x90b59942cdeb8c74!8m2!3d-7.8307261!4d110.3688585!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rZDAxcU1IUkJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11b6t28szg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Princess+skin+care/@-7.8307261,110.2967607,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57ae6875439d:0x90b59942cdeb8c74!8m2!3d-7.8307261!4d110.3688585!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5rZDAxcU1IUkJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11b6t28szg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3484,25 +3406,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F75" t="n">
-        <v>3.6</v>
+        <v>-7.888181</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.888181</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.331286</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+fisioterapi+PKU+Muhammadiyah+Bantul/@-7.8881806,110.2591883,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5576b0879599:0xf8fc44169764ef77!8m2!3d-7.8881806!4d110.3312861!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2JXVlRjbTFSUlJBQuABAPoBBAgAEBI!16s%2Fg%2F11h2hhft3x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+fisioterapi+PKU+Muhammadiyah+Bantul/@-7.8881806,110.2591883,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5576b0879599:0xf8fc44169764ef77!8m2!3d-7.8881806!4d110.3312861!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2JXVlRjbTFSUlJBQuABAPoBBAgAEBI!16s%2Fg%2F11h2hhft3x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3525,25 +3446,24 @@
           <t>(0274) 7487488</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.4</v>
+        <v>-7.952254</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.952254</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.382097</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Siluk+Wikaden+Bantul/@-7.9522536,110.3099995,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a54d70243c1af:0x485a5affa2733f37!8m2!3d-7.9522536!4d110.3820973!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdGNDMUViSEZuUlJBQuABAPoBBAgAECE!16s%2Fg%2F11bc7ntncg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Siluk+Wikaden+Bantul/@-7.9522536,110.3099995,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a54d70243c1af:0x485a5affa2733f37!8m2!3d-7.9522536!4d110.3820973!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdGNDMUViSEZuUlJBQuABAPoBBAgAECE!16s%2Fg%2F11bc7ntncg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -3566,25 +3486,24 @@
           <t>0859-3329-2421</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.884614</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.884614</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.331505</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kusuma+Dental+Care+Sudirman/@-7.8846143,110.2594073,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5521a9856891:0x7fae2a0acc67a250!8m2!3d-7.8846143!4d110.3315051!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5mTW1GRE5XUm5FQUXgAQD6AQQIABA-!16s%2Fg%2F11w4mvxfp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kusuma+Dental+Care+Sudirman/@-7.8846143,110.2594073,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5521a9856891:0x7fae2a0acc67a250!8m2!3d-7.8846143!4d110.3315051!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5mTW1GRE5XUm5FQUXgAQD6AQQIABA-!16s%2Fg%2F11w4mvxfp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3607,25 +3526,24 @@
           <t>0812-2989-0723</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>-7.781654</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.781654</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.349677</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Drg.+Ursula+eko/@-7.7816544,110.2775796,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a599e1902e281:0xff8112b54301c7bf!8m2!3d-7.7816544!4d110.3496774!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQdkZW50aXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZWtwaE5WTjNFQUXgAQD6AQQIABA0!16s%2Fg%2F11pkypdrmf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Drg.+Ursula+eko/@-7.7816544,110.2775796,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a599e1902e281:0xff8112b54301c7bf!8m2!3d-7.7816544!4d110.3496774!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySAQdkZW50aXN0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZWtwaE5WTjNFQUXgAQD6AQQIABA0!16s%2Fg%2F11pkypdrmf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3652,25 +3570,24 @@
           <t>0856-4308-4557</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>-7.877791</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.877791</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.313132</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya+Sehat+El+Syifa/@-7.8777915,110.241034,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7affbe31761403:0xb0a9ae697afe0a81!8m2!3d-7.8777915!4d110.3131318!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vZWxwSFltVm5FQUXgAQD6AQQIABA5!16s%2Fg%2F11sbdnjvvm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya+Sehat+El+Syifa/@-7.8777915,110.241034,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7affbe31761403:0xb0a9ae697afe0a81!8m2!3d-7.8777915!4d110.3131318!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5vZWxwSFltVm5FQUXgAQD6AQQIABA5!16s%2Fg%2F11sbdnjvvm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3693,25 +3610,24 @@
           <t>0899-8889-666</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F80" t="n">
-        <v>3.9</v>
+        <v>-7.784242</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.784242</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.348153</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dokter+Muslimah+Beauty+Clinic/@-7.7842423,110.276055,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5810c6674f95:0x30c08de6ad8a341d!8m2!3d-7.7842423!4d110.3481528!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11g9ngj7ln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dokter+Muslimah+Beauty+Clinic/@-7.7842423,110.276055,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5810c6674f95:0x30c08de6ad8a341d!8m2!3d-7.7842423!4d110.3481528!15sCg1LbGluaWsgQmFudHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11g9ngj7ln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3738,25 +3654,24 @@
           <t>0857-7191-3414</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.5</v>
+        <v>-7.860889</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.860889</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.353412</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Sewon+1/@-7.860889,110.2813142,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a564da9998b6b:0x94796c1653223f58!8m2!3d-7.860889!4d110.353412!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndNSFZ4U1RKblJSQULgAQD6AQQIABAu!16s%2Fg%2F1pzth2g8v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Sewon+1/@-7.860889,110.2813142,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a564da9998b6b:0x94796c1653223f58!8m2!3d-7.860889!4d110.353412!15sCg1LbGluaWsgQmFudHVsWg8iDWtsaW5payBiYW50dWySARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndNSFZ4U1RKblJSQULgAQD6AQQIABAu!16s%2Fg%2F1pzth2g8v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -3779,25 +3694,24 @@
           <t>0857-4343-2274</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>-7.82383</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.82383</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.324924</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Terapi+Lintah+di+Bantul/@-7.860889,110.2813142,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af87155555555:0x2edc16d3cbb552ba!8m2!3d-7.8238299!4d110.3249238!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzrtp672?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Terapi+Lintah+di+Bantul/@-7.860889,110.2813142,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7af87155555555:0x2edc16d3cbb552ba!8m2!3d-7.8238299!4d110.3249238!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzrtp672?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3821,22 +3735,21 @@
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>-7.88033</v>
+      </c>
       <c r="G83" t="n">
-        <v>-7.88033</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.332587</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PIK+KRR+Tunas+Kencana/@-7.860889,110.2813142,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a55ffe9d960b5:0x1a82d1dca80e43fa!8m2!3d-7.88033!4d110.3325869!15sCg1LbGluaWsgQmFudHVskgEVcHVibGljX21lZGljYWxfY2VudGVy4AEA!16s%2Fg%2F11b6hzqhkt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3856,22 +3769,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.809324</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.809324</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.407795</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Supranatural+Dengan+Ramuan+Endatu/@-7.8093239,110.3356975,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a5743fd0ca96f:0x6154a0fab4a498fa!8m2!3d-7.8093239!4d110.4077953!15sCg1LbGluaWsgQmFudHVskgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzpyvxcb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3891,22 +3803,21 @@
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>-7.835469</v>
+      </c>
       <c r="G85" t="n">
-        <v>-7.835469</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.352921</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Tri+Husada/@-7.8354691,110.2808235,13z/data=!4m10!1m2!2m1!1sKlinik+Bantul!3m6!1s0x2e7a57caf42def2d:0x47f2c1798b7580ec!8m2!3d-7.8354691!4d110.3529213!15sCg1LbGluaWsgQmFudHVskgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6z6bk17?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
